--- a/cuadros resultados .xlsx
+++ b/cuadros resultados .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Archivos\MIDS\GitHub\models\PI_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7C4578-020D-42B0-9A2C-83681F9E8293}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9595E2DA-E631-4321-B991-4F1179C68DD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4DDC60A2-5A72-4D9F-9ECF-2443D02E5193}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>Kshape</t>
   </si>
@@ -109,6 +109,84 @@
   </si>
   <si>
     <t>resultados conjunto</t>
+  </si>
+  <si>
+    <t>LA1</t>
+  </si>
+  <si>
+    <t>LA101</t>
+  </si>
+  <si>
+    <t>LSA101</t>
+  </si>
+  <si>
+    <t>LA2</t>
+  </si>
+  <si>
+    <t>LA3</t>
+  </si>
+  <si>
+    <t>LA44</t>
+  </si>
+  <si>
+    <t>LA53</t>
+  </si>
+  <si>
+    <t>LA54</t>
+  </si>
+  <si>
+    <t>LA6</t>
+  </si>
+  <si>
+    <t>LAMAR</t>
+  </si>
+  <si>
+    <t>Sec_LA1</t>
+  </si>
+  <si>
+    <t>Sec_LA101</t>
+  </si>
+  <si>
+    <t>Sec_LSA101</t>
+  </si>
+  <si>
+    <t>Sec_LA2</t>
+  </si>
+  <si>
+    <t>Sec_LA3</t>
+  </si>
+  <si>
+    <t>Sec_LA44</t>
+  </si>
+  <si>
+    <t>Sec_LA53</t>
+  </si>
+  <si>
+    <t>Sec_LA54</t>
+  </si>
+  <si>
+    <t>Sec_LA6</t>
+  </si>
+  <si>
+    <t>Sec_LAMAR</t>
+  </si>
+  <si>
+    <t>Indi_LA1</t>
+  </si>
+  <si>
+    <t>Indi_LA2</t>
+  </si>
+  <si>
+    <t>Indi_LA3</t>
+  </si>
+  <si>
+    <t>Indi_LA44</t>
+  </si>
+  <si>
+    <t>Indi_LA6</t>
+  </si>
+  <si>
+    <t>Indi_LAMAR</t>
   </si>
 </sst>
 </file>
@@ -567,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42BDDDB-D0E7-414C-871C-75A74E27EBA4}">
-  <dimension ref="B1:G48"/>
+  <dimension ref="B1:L110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,6 +1390,1507 @@
         <v>-0.1</v>
       </c>
     </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="8">
+        <v>28.68</v>
+      </c>
+      <c r="D55" s="8">
+        <v>23.69</v>
+      </c>
+      <c r="E55" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="F55" s="8">
+        <v>5.57</v>
+      </c>
+      <c r="G55" s="8">
+        <v>8.02</v>
+      </c>
+      <c r="H55" s="8">
+        <v>8.73</v>
+      </c>
+      <c r="I55" s="8">
+        <v>6.09</v>
+      </c>
+      <c r="J55" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="K55" s="8">
+        <v>3.85</v>
+      </c>
+      <c r="L55" s="8">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5">
+        <v>-0.89</v>
+      </c>
+      <c r="D60" s="5">
+        <v>-0.93</v>
+      </c>
+      <c r="E60" s="5">
+        <v>-0.65</v>
+      </c>
+      <c r="F60" s="5">
+        <v>-0.89</v>
+      </c>
+      <c r="G60" s="5">
+        <v>-0.88</v>
+      </c>
+      <c r="H60" s="5">
+        <v>-0.85</v>
+      </c>
+      <c r="I60" s="5">
+        <v>-0.83</v>
+      </c>
+      <c r="J60" s="5">
+        <v>-0.72</v>
+      </c>
+      <c r="K60" s="5">
+        <v>-0.87</v>
+      </c>
+      <c r="L60" s="5">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E61" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H61" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I61" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J61" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L61" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="L62" s="5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D63" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="E63" s="8">
+        <v>-0.33</v>
+      </c>
+      <c r="F63" s="8">
+        <v>-0.36</v>
+      </c>
+      <c r="G63" s="8">
+        <v>-0.27</v>
+      </c>
+      <c r="H63" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="I63" s="8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J63" s="8">
+        <v>-0.09</v>
+      </c>
+      <c r="K63" s="8">
+        <v>-0.22</v>
+      </c>
+      <c r="L63" s="8">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="5">
+        <v>10.42</v>
+      </c>
+      <c r="D64" s="5">
+        <v>11.39</v>
+      </c>
+      <c r="E64" s="5">
+        <v>11.15</v>
+      </c>
+      <c r="F64" s="5">
+        <v>6.87</v>
+      </c>
+      <c r="G64" s="5">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H64" s="5">
+        <v>8.74</v>
+      </c>
+      <c r="I64" s="5">
+        <v>7.11</v>
+      </c>
+      <c r="J64" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="K64" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="L64" s="5">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="K65" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="D66" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="E66" s="5">
+        <v>-0.05</v>
+      </c>
+      <c r="F66" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="G66" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="H66" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="I66" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="J66" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="K66" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="L66" s="5">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D71" s="5">
+        <v>-0.41</v>
+      </c>
+      <c r="E71" s="5">
+        <v>-0.34</v>
+      </c>
+      <c r="F71" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="G71" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H71" s="5">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="8">
+        <v>4.09</v>
+      </c>
+      <c r="D72" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="E72" s="8">
+        <v>-0.99</v>
+      </c>
+      <c r="F72" s="8">
+        <v>-0.67</v>
+      </c>
+      <c r="G72" s="8">
+        <v>-0.98</v>
+      </c>
+      <c r="H72" s="8">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="E74" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="G74" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D75" s="5">
+        <v>-0.41</v>
+      </c>
+      <c r="E75" s="5">
+        <v>-0.34</v>
+      </c>
+      <c r="F75" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="G75" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H75" s="5">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="E76" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="D77" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H77" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="D78" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F79" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="8">
+        <v>-0.36</v>
+      </c>
+      <c r="D80" s="8">
+        <v>-0.26</v>
+      </c>
+      <c r="E80" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F80" s="8">
+        <v>-0.04</v>
+      </c>
+      <c r="G80" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H80" s="8">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="5">
+        <v>8.75</v>
+      </c>
+      <c r="D81" s="5">
+        <v>9.83</v>
+      </c>
+      <c r="E81" s="5">
+        <v>13.03</v>
+      </c>
+      <c r="F81" s="5">
+        <v>11.15</v>
+      </c>
+      <c r="G81" s="5">
+        <v>14.06</v>
+      </c>
+      <c r="H81" s="5">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="E82" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="E83" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="F83" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="G83" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="H83" s="5">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="8">
+        <v>28.68</v>
+      </c>
+      <c r="D88" s="8">
+        <v>23.69</v>
+      </c>
+      <c r="E88" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="F88" s="8">
+        <v>5.57</v>
+      </c>
+      <c r="G88" s="8">
+        <v>8.02</v>
+      </c>
+      <c r="H88" s="8">
+        <v>8.73</v>
+      </c>
+      <c r="I88" s="8">
+        <v>6.09</v>
+      </c>
+      <c r="J88" s="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="E90" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="G90" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="H90" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="I90" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="F92" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="G92" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="H92" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="I92" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="5">
+        <v>-0.89</v>
+      </c>
+      <c r="D93" s="5">
+        <v>-0.93</v>
+      </c>
+      <c r="E93" s="5">
+        <v>-0.65</v>
+      </c>
+      <c r="F93" s="5">
+        <v>-0.89</v>
+      </c>
+      <c r="G93" s="5">
+        <v>-0.88</v>
+      </c>
+      <c r="H93" s="5">
+        <v>-0.85</v>
+      </c>
+      <c r="I93" s="5">
+        <v>-0.83</v>
+      </c>
+      <c r="J93" s="5">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="D94" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E94" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F94" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G94" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I94" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J94" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H95" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E96" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="G96" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="H96" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="I96" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="J96" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="D97" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="E97" s="5">
+        <v>-0.05</v>
+      </c>
+      <c r="F97" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="G97" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="H97" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="I97" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="J97" s="5">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F100" s="5">
+        <v>-0.41</v>
+      </c>
+      <c r="G100" s="5">
+        <v>-0.34</v>
+      </c>
+      <c r="H100" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="I100" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J100" s="5">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3.85</v>
+      </c>
+      <c r="D101" s="8">
+        <v>20.79</v>
+      </c>
+      <c r="E101" s="8">
+        <v>4.09</v>
+      </c>
+      <c r="F101" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="G101" s="8">
+        <v>-0.99</v>
+      </c>
+      <c r="H101" s="8">
+        <v>-0.67</v>
+      </c>
+      <c r="I101" s="8">
+        <v>-0.98</v>
+      </c>
+      <c r="J101" s="8">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="G102" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="J102" s="5">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="G103" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="I103" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="J103" s="8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F104" s="5">
+        <v>-0.41</v>
+      </c>
+      <c r="G104" s="5">
+        <v>-0.34</v>
+      </c>
+      <c r="H104" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="I104" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J104" s="5">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="G105" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="H105" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="I105" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="J105" s="8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="5">
+        <v>-0.87</v>
+      </c>
+      <c r="D106" s="5">
+        <v>-0.74</v>
+      </c>
+      <c r="E106" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="F106" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="G106" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="H106" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="I106" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="J106" s="5">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E107" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="F107" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G107" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H107" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I107" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J107" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="H108" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I108" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="J108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="G109" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="H109" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="I109" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J109" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="D110" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="E110" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="F110" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="G110" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="H110" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="I110" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="J110" s="5">
+        <v>-0.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/cuadros resultados .xlsx
+++ b/cuadros resultados .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Archivos\MIDS\GitHub\models\PI_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9595E2DA-E631-4321-B991-4F1179C68DD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC431669-7FBE-4A57-ACCF-79B831C7E201}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4DDC60A2-5A72-4D9F-9ECF-2443D02E5193}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="133">
   <si>
     <t>Kshape</t>
   </si>
@@ -187,6 +187,249 @@
   </si>
   <si>
     <t>Indi_LAMAR</t>
+  </si>
+  <si>
+    <t>annual_return</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>annual_volatility</t>
+  </si>
+  <si>
+    <t>sharpe_ratio</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>calmar_ratio</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>max_drawdown</t>
+  </si>
+  <si>
+    <t>omega_ratio</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>sortino_ratio</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>stability_of_timeseries</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>tail_ratio</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>common_sense_ratio</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.22</t>
   </si>
 </sst>
 </file>
@@ -287,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -303,6 +546,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42BDDDB-D0E7-414C-871C-75A74E27EBA4}">
-  <dimension ref="B1:L110"/>
+  <dimension ref="B1:X110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,12 +901,12 @@
     <col min="3" max="7" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -682,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -701,8 +945,24 @@
       <c r="G4" s="11">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -721,8 +981,26 @@
       <c r="G5" s="11">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -741,8 +1019,26 @@
       <c r="G6" s="11">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -761,8 +1057,26 @@
       <c r="G7" s="11">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -781,8 +1095,26 @@
       <c r="G8" s="11">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -801,8 +1133,26 @@
       <c r="G9">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-0.48</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.39</v>
+      </c>
+      <c r="N9" s="6">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -821,8 +1171,26 @@
       <c r="G10">
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -841,8 +1209,26 @@
       <c r="G11">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -862,7 +1248,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -882,7 +1268,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -902,12 +1288,12 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,8 +1310,24 @@
         <v>4</v>
       </c>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+      <c r="J22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
@@ -944,8 +1346,26 @@
       <c r="G23" s="12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
@@ -964,8 +1384,26 @@
       <c r="G24" s="13">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="M24" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N24" s="13">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
@@ -984,8 +1422,26 @@
       <c r="G25" s="6">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
@@ -1004,8 +1460,26 @@
       <c r="G26" s="13">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1498,26 @@
       <c r="G27" s="6">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="5">
+        <v>-0.95</v>
+      </c>
+      <c r="K27" s="5">
+        <v>-0.97</v>
+      </c>
+      <c r="L27" s="5">
+        <v>-0.96</v>
+      </c>
+      <c r="M27" s="5">
+        <v>-0.94</v>
+      </c>
+      <c r="N27" s="6">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
@@ -1044,8 +1536,26 @@
       <c r="G28" s="9">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1064,8 +1574,26 @@
       <c r="G29" s="6">
         <v>-0.95</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1613,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1633,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1653,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1145,12 +1673,12 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>17</v>
       </c>
@@ -1169,8 +1697,24 @@
       <c r="G37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I37" s="1"/>
+      <c r="J37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -1189,8 +1733,26 @@
       <c r="G38" s="10">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="K38" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>6</v>
       </c>
@@ -1209,8 +1771,26 @@
       <c r="G39" s="10">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>7</v>
       </c>
@@ -1229,8 +1809,26 @@
       <c r="G40">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="M40" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="N40" s="12">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>8</v>
       </c>
@@ -1249,8 +1847,26 @@
       <c r="G41" s="10">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -1269,8 +1885,26 @@
       <c r="G42" s="11">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="5">
+        <v>-0.81</v>
+      </c>
+      <c r="K42" s="5">
+        <v>-0.89</v>
+      </c>
+      <c r="L42" s="5">
+        <v>-0.85</v>
+      </c>
+      <c r="M42" s="5">
+        <v>-0.9</v>
+      </c>
+      <c r="N42" s="6">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1923,26 @@
       <c r="G43">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K43" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M43" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -1309,8 +1961,26 @@
       <c r="G44">
         <v>-0.87</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +2000,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +2020,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -1370,7 +2040,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +2060,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>26</v>
@@ -1422,8 +2092,39 @@
       <c r="L53" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N53" s="1"/>
+      <c r="O53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
@@ -1457,8 +2158,41 @@
       <c r="L54" s="5">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
@@ -1492,8 +2226,41 @@
       <c r="L55" s="8">
         <v>20.79</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="W55" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X55" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>7</v>
       </c>
@@ -1527,8 +2294,41 @@
       <c r="L56" s="5">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +2362,41 @@
       <c r="L57" s="8">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="V57" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W57" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X57" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
@@ -1597,8 +2430,41 @@
       <c r="L58" s="5">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>10</v>
       </c>
@@ -1632,8 +2498,41 @@
       <c r="L59" s="8">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="T59" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V59" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="W59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X59" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>11</v>
       </c>
@@ -1667,8 +2566,41 @@
       <c r="L60" s="5">
         <v>-0.74</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>12</v>
       </c>
@@ -1702,8 +2634,41 @@
       <c r="L61" s="8">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N61" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="U61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="W61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="X61" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>13</v>
       </c>
@@ -1737,8 +2702,41 @@
       <c r="L62" s="5">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>14</v>
       </c>
@@ -1772,8 +2770,41 @@
       <c r="L63" s="8">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N63" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U63" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="V63" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="W63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X63" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +2839,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +2874,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>22</v>
       </c>
@@ -1878,7 +2909,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
         <v>26</v>
@@ -1898,8 +2929,39 @@
       <c r="H70" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>5</v>
       </c>
@@ -1921,8 +2983,41 @@
       <c r="H71" s="5">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>6</v>
       </c>
@@ -1944,8 +3039,41 @@
       <c r="H72" s="8">
         <v>-0.79</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S72" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T72" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
@@ -1967,8 +3095,41 @@
       <c r="H73" s="5">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
@@ -1990,8 +3151,41 @@
       <c r="H74" s="8">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P74" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q74" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R74" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S74" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T74" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
@@ -2013,8 +3207,41 @@
       <c r="H75" s="5">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>10</v>
       </c>
@@ -2036,8 +3263,41 @@
       <c r="H76" s="8">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J76" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q76" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S76" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T76" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>11</v>
       </c>
@@ -2059,8 +3319,41 @@
       <c r="H77" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J77" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>12</v>
       </c>
@@ -2082,8 +3375,41 @@
       <c r="H78" s="8">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J78" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P78" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R78" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S78" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="T78" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>13</v>
       </c>
@@ -2105,8 +3431,41 @@
       <c r="H79" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>14</v>
       </c>
@@ -2128,8 +3487,41 @@
       <c r="H80" s="8">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J80" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R80" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="S80" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T80" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>15</v>
       </c>
@@ -2152,7 +3544,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>14</v>
       </c>
@@ -2175,7 +3567,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +3590,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>36</v>
@@ -2224,8 +3616,39 @@
       <c r="J86" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L86" s="1"/>
+      <c r="M86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>5</v>
       </c>
@@ -2253,8 +3676,41 @@
       <c r="J87" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U87" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V87" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>6</v>
       </c>
@@ -2282,8 +3738,41 @@
       <c r="J88" s="8">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L88" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q88" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="R88" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S88" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T88" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="U88" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="V88" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>7</v>
       </c>
@@ -2311,8 +3800,41 @@
       <c r="J89" s="5">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T89" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V89" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>8</v>
       </c>
@@ -2340,8 +3862,41 @@
       <c r="J90" s="8">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L90" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q90" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R90" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="S90" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T90" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U90" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="V90" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>9</v>
       </c>
@@ -2369,8 +3924,41 @@
       <c r="J91" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L91" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="U91" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V91" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>10</v>
       </c>
@@ -2398,8 +3986,41 @@
       <c r="J92" s="8">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L92" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O92" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P92" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q92" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R92" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S92" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T92" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U92" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V92" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>11</v>
       </c>
@@ -2427,8 +4048,41 @@
       <c r="J93" s="5">
         <v>-0.78</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U93" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>12</v>
       </c>
@@ -2456,8 +4110,41 @@
       <c r="J94" s="8">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L94" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O94" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P94" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q94" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R94" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S94" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T94" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="U94" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="V94" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>13</v>
       </c>
@@ -2485,8 +4172,41 @@
       <c r="J95" s="5">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L95" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V95" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>14</v>
       </c>
@@ -2513,6 +4233,39 @@
       </c>
       <c r="J96" s="8">
         <v>0.93</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P96" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q96" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R96" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S96" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="T96" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="U96" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="V96" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
